--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3a</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3a</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5388240000000001</v>
+        <v>1.339548666666667</v>
       </c>
       <c r="H2">
-        <v>1.616472</v>
+        <v>4.018646</v>
       </c>
       <c r="I2">
-        <v>0.05035277456536845</v>
+        <v>0.09827984122213275</v>
       </c>
       <c r="J2">
-        <v>0.05035277456536844</v>
+        <v>0.09827984122213274</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N2">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O2">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P2">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q2">
-        <v>47.38487189550401</v>
+        <v>179.2021451014631</v>
       </c>
       <c r="R2">
-        <v>426.4638470595361</v>
+        <v>1612.819305913168</v>
       </c>
       <c r="S2">
-        <v>0.02069162297191077</v>
+        <v>0.04998859968052773</v>
       </c>
       <c r="T2">
-        <v>0.02069162297191077</v>
+        <v>0.04998859968052771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5388240000000001</v>
+        <v>1.339548666666667</v>
       </c>
       <c r="H3">
-        <v>1.616472</v>
+        <v>4.018646</v>
       </c>
       <c r="I3">
-        <v>0.05035277456536845</v>
+        <v>0.09827984122213275</v>
       </c>
       <c r="J3">
-        <v>0.05035277456536844</v>
+        <v>0.09827984122213274</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q3">
-        <v>28.256992582104</v>
+        <v>70.24857233042201</v>
       </c>
       <c r="R3">
-        <v>254.312933238936</v>
+        <v>632.2371509737981</v>
       </c>
       <c r="S3">
-        <v>0.01233902326713796</v>
+        <v>0.01959590248412373</v>
       </c>
       <c r="T3">
-        <v>0.01233902326713795</v>
+        <v>0.01959590248412373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5388240000000001</v>
+        <v>1.339548666666667</v>
       </c>
       <c r="H4">
-        <v>1.616472</v>
+        <v>4.018646</v>
       </c>
       <c r="I4">
-        <v>0.05035277456536845</v>
+        <v>0.09827984122213275</v>
       </c>
       <c r="J4">
-        <v>0.05035277456536844</v>
+        <v>0.09827984122213274</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N4">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O4">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P4">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q4">
-        <v>10.21241838188</v>
+        <v>28.395338715462</v>
       </c>
       <c r="R4">
-        <v>91.91176543692002</v>
+        <v>255.558048439158</v>
       </c>
       <c r="S4">
-        <v>0.004459472028441251</v>
+        <v>0.007920905294055163</v>
       </c>
       <c r="T4">
-        <v>0.004459472028441249</v>
+        <v>0.007920905294055159</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5388240000000001</v>
+        <v>1.339548666666667</v>
       </c>
       <c r="H5">
-        <v>1.616472</v>
+        <v>4.018646</v>
       </c>
       <c r="I5">
-        <v>0.05035277456536845</v>
+        <v>0.09827984122213275</v>
       </c>
       <c r="J5">
-        <v>0.05035277456536844</v>
+        <v>0.09827984122213274</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N5">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q5">
-        <v>29.45613892821601</v>
+        <v>74.47344229417155</v>
       </c>
       <c r="R5">
-        <v>265.105250353944</v>
+        <v>670.260980647544</v>
       </c>
       <c r="S5">
-        <v>0.01286265629787848</v>
+        <v>0.02077443376342613</v>
       </c>
       <c r="T5">
-        <v>0.01286265629787847</v>
+        <v>0.02077443376342613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>6.120873</v>
       </c>
       <c r="I6">
-        <v>0.1906639510689022</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="J6">
-        <v>0.1906639510689021</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N6">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O6">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P6">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q6">
-        <v>179.425800752286</v>
+        <v>272.946054838776</v>
       </c>
       <c r="R6">
-        <v>1614.832206770574</v>
+        <v>2456.514493548984</v>
       </c>
       <c r="S6">
-        <v>0.07835013311393477</v>
+        <v>0.07613854768306309</v>
       </c>
       <c r="T6">
-        <v>0.07835013311393475</v>
+        <v>0.07613854768306307</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>6.120873</v>
       </c>
       <c r="I7">
-        <v>0.1906639510689022</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="J7">
-        <v>0.1906639510689021</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q7">
         <v>106.996881453561</v>
       </c>
       <c r="R7">
-        <v>962.9719330820488</v>
+        <v>962.971933082049</v>
       </c>
       <c r="S7">
-        <v>0.04672248845770077</v>
+        <v>0.02984687639212457</v>
       </c>
       <c r="T7">
-        <v>0.04672248845770077</v>
+        <v>0.02984687639212457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>6.120873</v>
       </c>
       <c r="I8">
-        <v>0.1906639510689022</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="J8">
-        <v>0.1906639510689021</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N8">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O8">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P8">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q8">
-        <v>38.669965170045</v>
+        <v>43.249458168081</v>
       </c>
       <c r="R8">
-        <v>348.029686530405</v>
+        <v>389.245123512729</v>
       </c>
       <c r="S8">
-        <v>0.01688607160108018</v>
+        <v>0.01206447528593942</v>
       </c>
       <c r="T8">
-        <v>0.01688607160108017</v>
+        <v>0.01206447528593941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>6.120873</v>
       </c>
       <c r="I9">
-        <v>0.1906639510689022</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="J9">
-        <v>0.1906639510689021</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N9">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q9">
-        <v>111.537524590569</v>
+        <v>113.431857933108</v>
       </c>
       <c r="R9">
-        <v>1003.837721315121</v>
+        <v>1020.886721397972</v>
       </c>
       <c r="S9">
-        <v>0.04870525789618645</v>
+        <v>0.03164191887338257</v>
       </c>
       <c r="T9">
-        <v>0.04870525789618644</v>
+        <v>0.03164191887338257</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.105726333333333</v>
+        <v>10.25010366666667</v>
       </c>
       <c r="H10">
-        <v>24.317179</v>
+        <v>30.750311</v>
       </c>
       <c r="I10">
-        <v>0.7574751880964914</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="J10">
-        <v>0.7574751880964913</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N10">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O10">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P10">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q10">
-        <v>712.8279436792225</v>
+        <v>1371.238395652943</v>
       </c>
       <c r="R10">
-        <v>6415.451493113002</v>
+        <v>12341.14556087649</v>
       </c>
       <c r="S10">
-        <v>0.3112716456631888</v>
+        <v>0.3825081847544491</v>
       </c>
       <c r="T10">
-        <v>0.3112716456631887</v>
+        <v>0.3825081847544491</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.105726333333333</v>
+        <v>10.25010366666667</v>
       </c>
       <c r="H11">
-        <v>24.317179</v>
+        <v>30.750311</v>
       </c>
       <c r="I11">
-        <v>0.7574751880964914</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="J11">
-        <v>0.7574751880964913</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q11">
-        <v>425.0802653066029</v>
+        <v>537.5356392343269</v>
       </c>
       <c r="R11">
-        <v>3825.722387759427</v>
+        <v>4837.820753108944</v>
       </c>
       <c r="S11">
-        <v>0.1856204360311582</v>
+        <v>0.1499460504141139</v>
       </c>
       <c r="T11">
-        <v>0.1856204360311582</v>
+        <v>0.1499460504141139</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.105726333333333</v>
+        <v>10.25010366666667</v>
       </c>
       <c r="H12">
-        <v>24.317179</v>
+        <v>30.750311</v>
       </c>
       <c r="I12">
-        <v>0.7574751880964914</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="J12">
-        <v>0.7574751880964913</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N12">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O12">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P12">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q12">
-        <v>153.6291416214239</v>
+        <v>217.278530243967</v>
       </c>
       <c r="R12">
-        <v>1382.662274592815</v>
+        <v>1955.506772195703</v>
       </c>
       <c r="S12">
-        <v>0.06708546733942745</v>
+        <v>0.06061004158956591</v>
       </c>
       <c r="T12">
-        <v>0.06708546733942744</v>
+        <v>0.06061004158956589</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.105726333333333</v>
+        <v>10.25010366666667</v>
       </c>
       <c r="H13">
-        <v>24.317179</v>
+        <v>30.750311</v>
       </c>
       <c r="I13">
-        <v>0.7574751880964914</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="J13">
-        <v>0.7574751880964913</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N13">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q13">
-        <v>443.1194619927203</v>
+        <v>569.8639571105115</v>
       </c>
       <c r="R13">
-        <v>3988.075157934483</v>
+        <v>5128.775613994603</v>
       </c>
       <c r="S13">
-        <v>0.1934976390627169</v>
+        <v>0.1589640637852286</v>
       </c>
       <c r="T13">
-        <v>0.1934976390627169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.016138</v>
-      </c>
-      <c r="H14">
-        <v>0.048414</v>
-      </c>
-      <c r="I14">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="J14">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>87.94127933333334</v>
-      </c>
-      <c r="N14">
-        <v>263.823838</v>
-      </c>
-      <c r="O14">
-        <v>0.4109331243514438</v>
-      </c>
-      <c r="P14">
-        <v>0.4109331243514438</v>
-      </c>
-      <c r="Q14">
-        <v>1.419196365881333</v>
-      </c>
-      <c r="R14">
-        <v>12.772767292932</v>
-      </c>
-      <c r="S14">
-        <v>0.0006197226024094991</v>
-      </c>
-      <c r="T14">
-        <v>0.0006197226024094991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.016138</v>
-      </c>
-      <c r="H15">
-        <v>0.048414</v>
-      </c>
-      <c r="I15">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="J15">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>52.441971</v>
-      </c>
-      <c r="N15">
-        <v>157.325913</v>
-      </c>
-      <c r="O15">
-        <v>0.2450515065683087</v>
-      </c>
-      <c r="P15">
-        <v>0.2450515065683087</v>
-      </c>
-      <c r="Q15">
-        <v>0.8463085279979999</v>
-      </c>
-      <c r="R15">
-        <v>7.616776751981999</v>
-      </c>
-      <c r="S15">
-        <v>0.000369558812311761</v>
-      </c>
-      <c r="T15">
-        <v>0.000369558812311761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.016138</v>
-      </c>
-      <c r="H16">
-        <v>0.048414</v>
-      </c>
-      <c r="I16">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="J16">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>18.95316166666667</v>
-      </c>
-      <c r="N16">
-        <v>56.85948500000001</v>
-      </c>
-      <c r="O16">
-        <v>0.08856457398691947</v>
-      </c>
-      <c r="P16">
-        <v>0.08856457398691946</v>
-      </c>
-      <c r="Q16">
-        <v>0.3058661229766667</v>
-      </c>
-      <c r="R16">
-        <v>2.75279510679</v>
-      </c>
-      <c r="S16">
-        <v>0.0001335630179705895</v>
-      </c>
-      <c r="T16">
-        <v>0.0001335630179705894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.016138</v>
-      </c>
-      <c r="H17">
-        <v>0.048414</v>
-      </c>
-      <c r="I17">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="J17">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>54.667459</v>
-      </c>
-      <c r="N17">
-        <v>164.002377</v>
-      </c>
-      <c r="O17">
-        <v>0.255450795093328</v>
-      </c>
-      <c r="P17">
-        <v>0.255450795093328</v>
-      </c>
-      <c r="Q17">
-        <v>0.882223453342</v>
-      </c>
-      <c r="R17">
-        <v>7.940011080077999</v>
-      </c>
-      <c r="S17">
-        <v>0.0003852418365461872</v>
-      </c>
-      <c r="T17">
-        <v>0.0003852418365461872</v>
+        <v>0.1589640637852286</v>
       </c>
     </row>
   </sheetData>
